--- a/biology/Botanique/Lagenidium/Lagenidium.xlsx
+++ b/biology/Botanique/Lagenidium/Lagenidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lagenidium est un genre d'Oomycètes. Il comprend notamment l'espèce Lagenidium giganteum, utilisée comme agent de lutte biologique contre les moustiques[1].
+Lagenidium est un genre d'Oomycètes. Il comprend notamment l'espèce Lagenidium giganteum, utilisée comme agent de lutte biologique contre les moustiques.
 Certaines espèces peuvent provoquer chez le chien une mycose cutanée appelée lagénidiose.
 </t>
         </is>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,11 +553,13 @@
           <t>Liste des espèces et formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (14 mai 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (14 mai 2014) :
 Lagenidium callinectes Couch, 1942
-Selon NCBI  (14 mai 2014)[3] :
+Selon NCBI  (14 mai 2014) :
 Lagenidium callinectes
 Lagenidium caudatum
 Lagenidium chthamalophilum
@@ -553,7 +569,7 @@
 Lagenidium humanum
 Lagenidium myophilum
 Lagenidium thermophilum
-Selon World Register of Marine Species                               (14 mai 2014)[4] :
+Selon World Register of Marine Species                               (14 mai 2014) :
 Lagenidium callinectes (Couch, 1942)
 Lagenidium chthamalophilum (Johnson, 1958)
 </t>
